--- a/data/trans_orig/IP2906_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2906_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E542E53F-422C-4316-9F42-B8005919E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9764F642-CBF7-486F-92AA-4E3B7517FA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA55654-0E41-495D-9CF3-954C9B0DD3CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C00539B-84F0-4A0D-AD4A-0D4AF6E0950E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue mixta en 2023 (Tasa respuesta: 95,68%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,35%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>39,54%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,22 @@
     <t>55,65%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>60,46%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>70,56%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>65,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +131,10 @@
     <t>47,69%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
   </si>
   <si>
     <t>48,47%</t>
@@ -149,31 +143,31 @@
     <t>41,82%</t>
   </si>
   <si>
-    <t>54,5%</t>
+    <t>54,71%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>45,5%</t>
+    <t>45,29%</t>
   </si>
   <si>
     <t>58,18%</t>
@@ -182,10 +176,10 @@
     <t>51,94%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +188,55 @@
     <t>42,91%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>40,33%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
   </si>
   <si>
     <t>59,67%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +245,109 @@
     <t>42,26%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>44,67%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
   </si>
   <si>
     <t>57,74%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>55,33%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>55,98%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>56,03%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD1BCC-0558-4210-AB83-8EC9834AE52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92838ABC-65D1-4F80-971C-DCED83D00851}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +955,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -973,13 +967,13 @@
         <v>53048</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -994,13 +988,13 @@
         <v>43598</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>86</v>
@@ -1009,13 +1003,13 @@
         <v>47612</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
@@ -1024,18 +1018,18 @@
         <v>91209</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1047,13 +1041,13 @@
         <v>82907</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -1062,13 +1056,13 @@
         <v>76340</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>254</v>
@@ -1077,13 +1071,13 @@
         <v>159247</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,13 +1092,13 @@
         <v>90926</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -1113,13 +1107,13 @@
         <v>81163</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
@@ -1128,13 +1122,13 @@
         <v>172089</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,13 +1143,13 @@
         <v>173833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -1164,13 +1158,13 @@
         <v>157503</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>529</v>
@@ -1179,18 +1173,18 @@
         <v>331336</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1202,13 +1196,13 @@
         <v>86886</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -1217,13 +1211,13 @@
         <v>70394</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -1232,13 +1226,13 @@
         <v>157280</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,13 +1247,13 @@
         <v>115592</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -1268,13 +1262,13 @@
         <v>104146</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>281</v>
@@ -1283,13 +1277,13 @@
         <v>219738</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,13 +1298,13 @@
         <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -1319,13 +1313,13 @@
         <v>174540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>474</v>
@@ -1334,18 +1328,18 @@
         <v>377018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1357,13 +1351,13 @@
         <v>119952</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -1372,13 +1366,13 @@
         <v>108549</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>294</v>
@@ -1387,13 +1381,13 @@
         <v>228501</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,13 +1402,13 @@
         <v>163893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -1423,13 +1417,13 @@
         <v>134432</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>372</v>
@@ -1438,13 +1432,13 @@
         <v>298325</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>283845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -1474,13 +1468,13 @@
         <v>242981</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>666</v>
@@ -1489,13 +1483,13 @@
         <v>526826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,13 +1506,13 @@
         <v>309082</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>401</v>
@@ -1527,13 +1521,13 @@
         <v>274107</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>814</v>
@@ -1542,13 +1536,13 @@
         <v>583189</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1557,13 @@
         <v>394672</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>504</v>
@@ -1578,13 +1572,13 @@
         <v>348528</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1023</v>
@@ -1593,13 +1587,13 @@
         <v>743200</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>703754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>905</v>
@@ -1629,13 +1623,13 @@
         <v>622635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1837</v>
@@ -1644,18 +1638,18 @@
         <v>1326389</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2906_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2906_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9764F642-CBF7-486F-92AA-4E3B7517FA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C3F0A1-CE42-4EE5-BD79-C2DA7EC4120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C00539B-84F0-4A0D-AD4A-0D4AF6E0950E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD8F5704-87FB-467A-80DB-D05B3FFA1980}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue mixta en 2023 (Tasa respuesta: 95,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,55 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>62,76%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92838ABC-65D1-4F80-971C-DCED83D00851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AED7C1B-CD2E-404C-ADA8-5E3C9700F88C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>19337</v>
+        <v>18731</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>18824</v>
+        <v>20191</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>38161</v>
+        <v>38922</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>24261</v>
+        <v>29045</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,34 +952,34 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>28788</v>
+        <v>25531</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>53048</v>
+        <v>54576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -982,102 +988,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47776</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>82</v>
       </c>
-      <c r="D6" s="7">
-        <v>43598</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>86</v>
-      </c>
       <c r="I6" s="7">
-        <v>47612</v>
+        <v>45722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
       </c>
       <c r="N6" s="7">
-        <v>91209</v>
+        <v>93498</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>123</v>
+      </c>
+      <c r="D7" s="7">
+        <v>76046</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>131</v>
       </c>
-      <c r="D7" s="7">
-        <v>82907</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>123</v>
-      </c>
       <c r="I7" s="7">
-        <v>76340</v>
+        <v>84338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>159247</v>
+        <v>160384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>133</v>
+      </c>
+      <c r="D8" s="7">
+        <v>82006</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>142</v>
       </c>
-      <c r="D8" s="7">
-        <v>90926</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>133</v>
-      </c>
       <c r="I8" s="7">
-        <v>81163</v>
+        <v>96710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
       </c>
       <c r="N8" s="7">
-        <v>172089</v>
+        <v>178716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,102 +1143,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>256</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158052</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>173833</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>256</v>
-      </c>
       <c r="I9" s="7">
-        <v>157503</v>
+        <v>181048</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>529</v>
       </c>
       <c r="N9" s="7">
-        <v>331336</v>
+        <v>339100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7">
+        <v>68782</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>102</v>
       </c>
-      <c r="D10" s="7">
-        <v>86886</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>91</v>
-      </c>
       <c r="I10" s="7">
-        <v>70394</v>
+        <v>88181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
       </c>
       <c r="N10" s="7">
-        <v>157280</v>
+        <v>156963</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>140</v>
+      </c>
+      <c r="D11" s="7">
+        <v>102746</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>141</v>
       </c>
-      <c r="D11" s="7">
-        <v>115592</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>140</v>
-      </c>
       <c r="I11" s="7">
-        <v>104146</v>
+        <v>124309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>281</v>
       </c>
       <c r="N11" s="7">
-        <v>219738</v>
+        <v>227055</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,102 +1298,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>231</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171528</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>231</v>
-      </c>
       <c r="I12" s="7">
-        <v>174540</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>377018</v>
+        <v>384018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>151</v>
+      </c>
+      <c r="D13" s="7">
+        <v>104762</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>143</v>
       </c>
-      <c r="D13" s="7">
-        <v>119952</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>151</v>
-      </c>
       <c r="I13" s="7">
-        <v>108549</v>
+        <v>122832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>294</v>
       </c>
       <c r="N13" s="7">
-        <v>228501</v>
+        <v>227594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>181</v>
+      </c>
+      <c r="D14" s="7">
+        <v>135657</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>191</v>
       </c>
-      <c r="D14" s="7">
-        <v>163893</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>181</v>
-      </c>
       <c r="I14" s="7">
-        <v>134432</v>
+        <v>176952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>372</v>
       </c>
       <c r="N14" s="7">
-        <v>298325</v>
+        <v>312609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1453,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>332</v>
+      </c>
+      <c r="D15" s="7">
+        <v>240419</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
-        <v>283845</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>332</v>
-      </c>
       <c r="I15" s="7">
-        <v>242981</v>
+        <v>299784</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>526826</v>
+        <v>540203</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>401</v>
+      </c>
+      <c r="D16" s="7">
+        <v>268322</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>413</v>
       </c>
-      <c r="D16" s="7">
-        <v>309082</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>401</v>
-      </c>
       <c r="I16" s="7">
-        <v>274107</v>
+        <v>315541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>814</v>
       </c>
       <c r="N16" s="7">
-        <v>583189</v>
+        <v>583863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>504</v>
+      </c>
+      <c r="D17" s="7">
+        <v>349453</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>519</v>
       </c>
-      <c r="D17" s="7">
-        <v>394672</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>504</v>
-      </c>
       <c r="I17" s="7">
-        <v>348528</v>
+        <v>423503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1023</v>
       </c>
       <c r="N17" s="7">
-        <v>743200</v>
+        <v>772957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,54 +1608,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>905</v>
+      </c>
+      <c r="D18" s="7">
+        <v>617775</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>932</v>
       </c>
-      <c r="D18" s="7">
-        <v>703754</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>905</v>
-      </c>
       <c r="I18" s="7">
-        <v>622635</v>
+        <v>739044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1837</v>
       </c>
       <c r="N18" s="7">
-        <v>1326389</v>
+        <v>1356820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
